--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value353.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value353.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8999317097109111</v>
+        <v>0.8837209939956665</v>
       </c>
       <c r="B1">
-        <v>1.555692446382152</v>
+        <v>2.69945240020752</v>
       </c>
       <c r="C1">
-        <v>3.4393812972271</v>
+        <v>4.633284091949463</v>
       </c>
       <c r="D1">
-        <v>2.795181907517468</v>
+        <v>2.200158834457397</v>
       </c>
       <c r="E1">
-        <v>0.9355525545295317</v>
+        <v>1.298065066337585</v>
       </c>
     </row>
   </sheetData>
